--- a/data/case1/5/Q_device_2.xlsx
+++ b/data/case1/5/Q_device_2.xlsx
@@ -62,26 +62,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.023859452551930699</v>
+        <v>-0.054352781976451929</v>
       </c>
       <c r="B1" s="0">
-        <v>0.023859452492332456</v>
+        <v>0.054352781942259079</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.021671146318725014</v>
+        <v>0.042095558335632527</v>
       </c>
       <c r="B2" s="0">
-        <v>0.021671146242727968</v>
+        <v>-0.042095558407180184</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.038503584809865987</v>
+        <v>-0.050969206730113945</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.038503584846088866</v>
+        <v>0.050969206695782705</v>
       </c>
     </row>
     <row r="4">
